--- a/Assignment.xlsx
+++ b/Assignment.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="33">
   <si>
     <t>Name</t>
   </si>
@@ -112,6 +112,12 @@
   </si>
   <si>
     <t>week12</t>
+  </si>
+  <si>
+    <t>week13</t>
+  </si>
+  <si>
+    <t>Hoàn thiện tài liệu</t>
   </si>
 </sst>
 </file>
@@ -429,10 +435,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:N5"/>
+  <dimension ref="B3:O5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -448,7 +454,7 @@
     <col min="14" max="14" width="16.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>0</v>
       </c>
@@ -488,8 +494,11 @@
       <c r="N3" t="s">
         <v>30</v>
       </c>
+      <c r="O3" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>3</v>
       </c>
@@ -529,8 +538,11 @@
       <c r="N4" t="s">
         <v>26</v>
       </c>
+      <c r="O4" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>4</v>
       </c>

--- a/Assignment.xlsx
+++ b/Assignment.xlsx
@@ -117,7 +117,7 @@
     <t>week13</t>
   </si>
   <si>
-    <t>Hoàn thiện tài liệu</t>
+    <t>Hoàn thiện source code và tài liệu</t>
   </si>
 </sst>
 </file>
@@ -437,8 +437,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:O5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="N3" sqref="N3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Assignment.xlsx
+++ b/Assignment.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="36">
   <si>
     <t>Name</t>
   </si>
@@ -78,9 +78,6 @@
     <t>Vẽ các màn hình admin, nhân viên</t>
   </si>
   <si>
-    <t>Vẽ các màn hình học viên, huấn luyện viên</t>
-  </si>
-  <si>
     <t>code html</t>
   </si>
   <si>
@@ -118,12 +115,24 @@
   </si>
   <si>
     <t>Hoàn thiện source code và tài liệu</t>
+  </si>
+  <si>
+    <t>Vẽ các màn hình học viên, huấn luyện viên, font end</t>
+  </si>
+  <si>
+    <t>fuc shop</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chỉnh sửa giao diện </t>
+  </si>
+  <si>
+    <t>func scheduler</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -427,7 +436,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -438,7 +447,7 @@
   <dimension ref="B3:O5"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="N3" sqref="N3"/>
+      <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -480,22 +489,22 @@
         <v>15</v>
       </c>
       <c r="J3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K3" t="s">
+        <v>26</v>
+      </c>
+      <c r="L3" t="s">
         <v>27</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
         <v>28</v>
       </c>
-      <c r="M3" t="s">
+      <c r="N3" t="s">
         <v>29</v>
       </c>
-      <c r="N3" t="s">
+      <c r="O3" t="s">
         <v>30</v>
-      </c>
-      <c r="O3" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="4" spans="2:15" x14ac:dyDescent="0.25">
@@ -521,25 +530,25 @@
         <v>13</v>
       </c>
       <c r="I4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J4" t="s">
+        <v>21</v>
+      </c>
+      <c r="K4" t="s">
         <v>22</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>23</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4" t="s">
         <v>24</v>
       </c>
-      <c r="M4" t="s">
+      <c r="N4" t="s">
         <v>25</v>
       </c>
-      <c r="N4" t="s">
-        <v>26</v>
-      </c>
       <c r="O4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="2:15" x14ac:dyDescent="0.25">
@@ -559,13 +568,31 @@
         <v>17</v>
       </c>
       <c r="G5" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="H5" t="s">
         <v>13</v>
       </c>
       <c r="I5" t="s">
-        <v>20</v>
+        <v>19</v>
+      </c>
+      <c r="J5" t="s">
+        <v>34</v>
+      </c>
+      <c r="K5" t="s">
+        <v>33</v>
+      </c>
+      <c r="L5" t="s">
+        <v>33</v>
+      </c>
+      <c r="M5" t="s">
+        <v>35</v>
+      </c>
+      <c r="N5" t="s">
+        <v>35</v>
+      </c>
+      <c r="O5" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/Assignment.xlsx
+++ b/Assignment.xlsx
@@ -1,8 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
-  <workbookPr filterPrivacy="1"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
@@ -132,7 +132,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -142,12 +142,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -162,8 +174,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -436,7 +450,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -446,64 +460,69 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:O5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="N5" sqref="N5"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="20.140625" customWidth="1"/>
-    <col min="3" max="3" width="33.140625" customWidth="1"/>
+    <col min="3" max="3" width="25.28515625" customWidth="1"/>
     <col min="4" max="4" width="15.42578125" customWidth="1"/>
+    <col min="5" max="5" width="16.85546875" customWidth="1"/>
+    <col min="6" max="6" width="14" customWidth="1"/>
+    <col min="7" max="7" width="18.85546875" customWidth="1"/>
+    <col min="8" max="8" width="18.42578125" customWidth="1"/>
     <col min="9" max="9" width="17.28515625" customWidth="1"/>
     <col min="10" max="10" width="17.42578125" customWidth="1"/>
     <col min="11" max="11" width="15.7109375" customWidth="1"/>
     <col min="12" max="12" width="17.5703125" customWidth="1"/>
     <col min="13" max="13" width="18.140625" customWidth="1"/>
     <col min="14" max="14" width="16.85546875" customWidth="1"/>
+    <col min="15" max="15" width="17.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="I3" t="s">
+      <c r="I3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="J3" t="s">
+      <c r="J3" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="K3" t="s">
+      <c r="K3" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="L3" t="s">
+      <c r="L3" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="M3" t="s">
+      <c r="M3" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="N3" t="s">
+      <c r="N3" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="O3" t="s">
+      <c r="O3" s="2" t="s">
         <v>30</v>
       </c>
     </row>
